--- a/Template/Employee Data/DF Employees Master Data-12-06-25.xlsx
+++ b/Template/Employee Data/DF Employees Master Data-12-06-25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Amlan\Ticketing System\Template\Employee details format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Amlan\Ticketing System\Template\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FFCEB6-90EE-4A22-8318-2133B5AC63E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166A3FE0-FB79-49AC-B782-F563BAE34434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="622">
   <si>
     <t>Si No</t>
   </si>
@@ -1376,24 +1376,6 @@
   </si>
   <si>
     <t>UBIN0915688</t>
-  </si>
-  <si>
-    <t>000010715</t>
-  </si>
-  <si>
-    <t>Rajabhakshi Nadaf</t>
-  </si>
-  <si>
-    <t>rajabhakshi.nadaf@dfmail.org</t>
-  </si>
-  <si>
-    <t>91-9738985231</t>
-  </si>
-  <si>
-    <t>50100421866559</t>
-  </si>
-  <si>
-    <t>HDFC0001570</t>
   </si>
   <si>
     <t>CON100102</t>
@@ -2324,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96887ED-D757-40F9-8873-DE279DF1E57F}">
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G46" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2733,7 +2715,7 @@
         <v>110</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="L8" s="22" t="s">
         <v>131</v>
@@ -2783,10 +2765,10 @@
         <v>118</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>119</v>
@@ -2859,7 +2841,7 @@
         <v>131</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>37</v>
@@ -2886,7 +2868,7 @@
         <v>134</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>33</v>
@@ -3033,10 +3015,10 @@
         <v>162</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>119</v>
@@ -3183,10 +3165,10 @@
         <v>181</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>119</v>
@@ -3256,10 +3238,10 @@
         <v>118</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>42</v>
@@ -3271,16 +3253,16 @@
         <v>57</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>60</v>
@@ -3292,10 +3274,10 @@
         <v>33</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>36</v>
@@ -3336,7 +3318,7 @@
         <v>86</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>33</v>
@@ -3386,7 +3368,7 @@
         <v>204</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>33</v>
@@ -3433,10 +3415,10 @@
         <v>212</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>119</v>
@@ -3533,10 +3515,10 @@
         <v>229</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>119</v>
@@ -3636,7 +3618,7 @@
         <v>242</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>33</v>
@@ -3783,10 +3765,10 @@
         <v>264</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>33</v>
@@ -3883,10 +3865,10 @@
         <v>276</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>119</v>
@@ -3936,7 +3918,7 @@
         <v>285</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>33</v>
@@ -3983,10 +3965,10 @@
         <v>292</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>33</v>
@@ -4033,10 +4015,10 @@
         <v>299</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>119</v>
@@ -4136,7 +4118,7 @@
         <v>315</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>33</v>
@@ -4233,10 +4215,10 @@
         <v>326</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>119</v>
@@ -4283,10 +4265,10 @@
         <v>335</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>33</v>
@@ -4383,7 +4365,7 @@
         <v>348</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="L41" s="22" t="s">
         <v>131</v>
@@ -4433,7 +4415,7 @@
         <v>354</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="L42" s="22" t="s">
         <v>131</v>
@@ -4486,7 +4468,7 @@
         <v>363</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>33</v>
@@ -4536,7 +4518,7 @@
         <v>134</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>33</v>
@@ -4583,10 +4565,10 @@
         <v>374</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>119</v>
@@ -4683,10 +4665,10 @@
         <v>386</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>119</v>
@@ -4733,10 +4715,10 @@
         <v>392</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>119</v>
@@ -4836,7 +4818,7 @@
         <v>156</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>33</v>
@@ -4886,7 +4868,7 @@
         <v>156</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>33</v>
@@ -5103,7 +5085,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>442</v>
@@ -5111,17 +5093,17 @@
       <c r="C56" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>83</v>
+      <c r="D56" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>98</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>295</v>
+        <v>139</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>89</v>
@@ -5133,77 +5115,77 @@
         <v>445</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>478</v>
+        <v>395</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>477</v>
+        <v>394</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N56" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="N56" s="10">
+        <v>64148066739</v>
+      </c>
+      <c r="O56" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="O56" s="9" t="s">
-        <v>447</v>
-      </c>
       <c r="P56" s="9" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>16</v>
+        <v>450</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>98</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>395</v>
+        <v>472</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>394</v>
+        <v>471</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="N57" s="10">
-        <v>64148066739</v>
+        <v>33</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>453</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>455</v>
@@ -5218,142 +5200,142 @@
         <v>38</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>98</v>
+        <v>457</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>39</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>33</v>
       </c>
       <c r="N58" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>38</v>
+        <v>465</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>463</v>
+        <v>98</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>91</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>16</v>
+        <v>472</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>98</v>
+        <v>457</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>139</v>
+        <v>473</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>449</v>
+        <v>72</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>448</v>
+        <v>71</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>475</v>
+        <v>22</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>476</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>477</v>
@@ -5361,249 +5343,249 @@
       <c r="C61" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>219</v>
+      <c r="D61" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>463</v>
+        <v>98</v>
       </c>
       <c r="G61" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I61" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="H61" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I61" s="8" t="s">
+      <c r="J61" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="K61" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="L61" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N61" s="10">
+        <v>33310343408</v>
+      </c>
+      <c r="O61" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="K61" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="L61" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N61" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="O61" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="P61" s="9" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="J62" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I62" s="8" t="s">
+      <c r="K62" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L62" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N62" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="L62" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="M62" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="N62" s="10">
-        <v>33310343408</v>
-      </c>
       <c r="O62" s="9" t="s">
-        <v>487</v>
+        <v>152</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I63" s="8" t="s">
+      <c r="J63" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="J63" s="8" t="s">
-        <v>490</v>
-      </c>
       <c r="K63" s="8" t="s">
-        <v>72</v>
+        <v>608</v>
       </c>
       <c r="L63" s="22" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>33</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="J64" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>495</v>
-      </c>
       <c r="K64" s="8" t="s">
-        <v>614</v>
+        <v>86</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>131</v>
+        <v>525</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>33</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>90</v>
+        <v>447</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>242</v>
+        <v>496</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I65" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="J65" s="8" t="s">
         <v>498</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>499</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>86</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>33</v>
       </c>
       <c r="N65" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="O65" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="O65" s="9" t="s">
-        <v>453</v>
-      </c>
       <c r="P65" s="9" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>501</v>
@@ -5611,20 +5593,20 @@
       <c r="C66" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>38</v>
+      <c r="D66" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>503</v>
@@ -5633,13 +5615,13 @@
         <v>504</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>86</v>
+        <v>534</v>
       </c>
       <c r="L66" s="22" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="N66" s="10" t="s">
         <v>505</v>
@@ -5648,18 +5630,18 @@
         <v>506</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>16</v>
@@ -5674,36 +5656,36 @@
         <v>139</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>290</v>
+        <v>89</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>540</v>
+        <v>443</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>539</v>
+        <v>442</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>119</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>514</v>
@@ -5711,20 +5693,20 @@
       <c r="C68" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>16</v>
+      <c r="D68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>516</v>
@@ -5733,148 +5715,148 @@
         <v>517</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>449</v>
+        <v>72</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>448</v>
+        <v>71</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="N68" s="10" t="s">
         <v>518</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>519</v>
+        <v>22</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
-        <v>492</v>
-      </c>
-      <c r="B69" s="7" t="s">
         <v>520</v>
       </c>
+      <c r="B69" s="14" t="s">
+        <v>519</v>
+      </c>
       <c r="C69" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I69" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="J69" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="J69" s="8" t="s">
-        <v>523</v>
-      </c>
       <c r="K69" s="8" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>33</v>
       </c>
       <c r="N69" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="O69" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="O69" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="P69" s="9" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
-        <v>520</v>
-      </c>
-      <c r="B70" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>525</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>526</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>16</v>
+        <v>527</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>155</v>
+        <v>528</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>33</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="P70" s="9" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>533</v>
+        <v>83</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>534</v>
+        <v>295</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>535</v>
@@ -5883,10 +5865,10 @@
         <v>536</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>72</v>
+        <v>472</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>71</v>
+        <v>471</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>33</v>
@@ -5895,115 +5877,115 @@
         <v>537</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>538</v>
+        <v>136</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
+        <v>548</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="L72" s="22" t="s">
         <v>538</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="K72" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="L72" s="22" t="s">
-        <v>477</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>33</v>
       </c>
       <c r="N72" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="P72" s="9" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>547</v>
-      </c>
       <c r="D73" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I73" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="J73" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="J73" s="8" t="s">
-        <v>549</v>
-      </c>
       <c r="K73" s="8" t="s">
-        <v>545</v>
+        <v>60</v>
       </c>
       <c r="L73" s="22" t="s">
-        <v>544</v>
+        <v>217</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>33</v>
       </c>
       <c r="N73" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="O73" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="O73" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="P73" s="9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>551</v>
@@ -6011,70 +5993,70 @@
       <c r="C74" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="F74" s="6" t="s">
-        <v>57</v>
+        <v>318</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>28</v>
+        <v>553</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>29</v>
+        <v>554</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>60</v>
+        <v>557</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>217</v>
+        <v>569</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N74" s="10" t="s">
-        <v>555</v>
+        <v>119</v>
+      </c>
+      <c r="N74" s="10">
+        <v>39378011152</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>556</v>
+        <v>104</v>
       </c>
       <c r="P74" s="9" t="s">
-        <v>95</v>
+        <v>558</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>26</v>
+        <v>560</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>559</v>
+        <v>20</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>560</v>
+        <v>29</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>561</v>
@@ -6083,177 +6065,177 @@
         <v>562</v>
       </c>
       <c r="K75" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L75" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N75" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="L75" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="M75" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="N75" s="10">
-        <v>39378011152</v>
-      </c>
       <c r="O75" s="9" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>564</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
-        <v>558</v>
-      </c>
-      <c r="B76" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>566</v>
-      </c>
       <c r="D76" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>220</v>
+        <v>98</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I76" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="J76" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="J76" s="8" t="s">
-        <v>568</v>
-      </c>
       <c r="K76" s="8" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="L76" s="22" t="s">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>33</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>35</v>
+        <v>524</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
-        <v>560</v>
-      </c>
-      <c r="B77" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I77" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="J77" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I77" s="8" t="s">
+      <c r="K77" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="L77" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N77" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="J77" s="8" t="s">
+      <c r="O77" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="P77" s="9" t="s">
         <v>573</v>
-      </c>
-      <c r="K77" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L77" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N77" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="O77" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="P77" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>575</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>16</v>
+        <v>576</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>318</v>
+        <v>194</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>560</v>
+        <v>29</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>317</v>
+        <v>491</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="N78" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>441</v>
+        <v>580</v>
       </c>
       <c r="P78" s="9" t="s">
-        <v>579</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>581</v>
@@ -6261,20 +6243,20 @@
       <c r="C79" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>26</v>
+      <c r="D79" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>583</v>
@@ -6283,33 +6265,33 @@
         <v>584</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>497</v>
+        <v>317</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="N79" s="10" t="s">
         <v>585</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>586</v>
+        <v>260</v>
       </c>
       <c r="P79" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B80" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>587</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>588</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>16</v>
@@ -6324,136 +6306,136 @@
         <v>139</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>255</v>
+        <v>89</v>
       </c>
       <c r="I80" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="J80" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="J80" s="8" t="s">
-        <v>590</v>
-      </c>
       <c r="K80" s="8" t="s">
-        <v>258</v>
+        <v>395</v>
       </c>
       <c r="L80" s="22" t="s">
-        <v>317</v>
+        <v>394</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>119</v>
       </c>
       <c r="N80" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="O80" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="O80" s="9" t="s">
-        <v>260</v>
-      </c>
       <c r="P80" s="9" t="s">
-        <v>36</v>
+        <v>592</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>98</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>395</v>
+        <v>235</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>394</v>
+        <v>288</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="N81" s="10" t="s">
-        <v>596</v>
+      <c r="N81" s="10">
+        <v>34432438521</v>
       </c>
       <c r="O81" s="9" t="s">
         <v>597</v>
       </c>
       <c r="P81" s="9" t="s">
-        <v>598</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B82" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="D82" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I82" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="I82" s="8" t="s">
+      <c r="J82" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="J82" s="8" t="s">
-        <v>602</v>
-      </c>
       <c r="K82" s="8" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="N82" s="10">
-        <v>34432438521</v>
+      <c r="N82" s="10" t="s">
+        <v>602</v>
       </c>
       <c r="O82" s="9" t="s">
         <v>603</v>
       </c>
       <c r="P82" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>604</v>
@@ -6468,13 +6450,13 @@
         <v>16</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>318</v>
+        <v>98</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>139</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>606</v>
@@ -6483,121 +6465,71 @@
         <v>607</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>317</v>
+        <v>449</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="N83" s="10" t="s">
-        <v>608</v>
+      <c r="N83" s="10">
+        <v>31674630140</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>609</v>
+        <v>481</v>
       </c>
       <c r="P83" s="9" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
-        <v>608</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="K84" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="L84" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="M84" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="N84" s="10">
-        <v>31674630140</v>
-      </c>
-      <c r="O84" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="P84" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85" s="15">
+      <c r="A84" s="15">
         <v>378</v>
       </c>
-      <c r="B85" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="D85" s="18" t="s">
+      <c r="B84" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="D84" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E84" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F85" s="18" t="s">
+      <c r="F84" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G85" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="H85" s="19" t="s">
+      <c r="G84" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="H84" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I85" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="J85" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="K85" s="17" t="s">
+      <c r="I84" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="J84" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="K84" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="L85" s="23" t="s">
+      <c r="L84" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="M85" s="17" t="s">
+      <c r="M84" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N85" s="20">
+      <c r="N84" s="20">
         <v>32466215839</v>
       </c>
-      <c r="O85" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="P85" s="19" t="s">
+      <c r="O84" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="P84" s="19" t="s">
         <v>40</v>
       </c>
     </row>
